--- a/10v10/12/TAMU-Classic/TXST_TAMU.xlsx
+++ b/10v10/12/TAMU-Classic/TXST_TAMU.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\live-stats\12\TAMU-Classic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\12\TAMU-Classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B04F2-1C68-40C5-B95F-0329C7B181A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908ED4B0-32B8-44AE-BD1C-BC15931D4008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="ROSTER" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="82">
   <si>
     <t>A</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>2YB88</t>
+  </si>
+  <si>
+    <t>LOUIS SANCHEZ</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -569,20 +580,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,7 +807,7 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+    <sheetView zoomScale="78" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -834,21 +837,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -861,140 +864,140 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="24" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="24">
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>15</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="25" t="str">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="26" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="16" t="str">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="27" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>180*</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="25"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="24">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="20">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>16</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="25" t="str">
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="26" t="str">
         <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="16" t="str">
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="27" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>160</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="25"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -29211,6 +29214,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29220,13 +29230,6 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29241,8 +29244,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29300,6 +29303,9 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
+      <c r="C6" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">

--- a/10v10/12/TAMU-Classic/TXST_TAMU.xlsx
+++ b/10v10/12/TAMU-Classic/TXST_TAMU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\12\TAMU-Classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908ED4B0-32B8-44AE-BD1C-BC15931D4008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7582E29-9CF2-42BF-8498-5AC0DA956172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="146">
   <si>
     <t>A</t>
   </si>
@@ -204,9 +204,6 @@
     <t>ET</t>
   </si>
   <si>
-    <t>YB?</t>
-  </si>
-  <si>
     <t>YA21</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>95,4</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t>?</t>
@@ -277,6 +271,204 @@
   </si>
   <si>
     <t>LOUIS SANCHEZ</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0146</t>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <t>0244</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>0345</t>
+  </si>
+  <si>
+    <t>0414</t>
+  </si>
+  <si>
+    <t>0441</t>
+  </si>
+  <si>
+    <t>0513</t>
+  </si>
+  <si>
+    <t>0540</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>0637</t>
+  </si>
+  <si>
+    <t>0658</t>
+  </si>
+  <si>
+    <t>0727</t>
+  </si>
+  <si>
+    <t>0751</t>
+  </si>
+  <si>
+    <t>0814</t>
+  </si>
+  <si>
+    <t>0821</t>
+  </si>
+  <si>
+    <t>0850</t>
+  </si>
+  <si>
+    <t>0917</t>
+  </si>
+  <si>
+    <t>0958</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1245</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>1358</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>1504</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1622</t>
+  </si>
+  <si>
+    <t>1747</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>2147</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>2213</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>2236</t>
+  </si>
+  <si>
+    <t>2253</t>
+  </si>
+  <si>
+    <t>2316</t>
+  </si>
+  <si>
+    <t>2339</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>2440</t>
+  </si>
+  <si>
+    <t>2515</t>
+  </si>
+  <si>
+    <t>2529</t>
+  </si>
+  <si>
+    <t>2551</t>
+  </si>
+  <si>
+    <t>R?</t>
+  </si>
+  <si>
+    <t>2804</t>
+  </si>
+  <si>
+    <t>2711</t>
   </si>
 </sst>
 </file>
@@ -564,10 +756,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,17 +771,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,8 +999,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="78" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -837,21 +1029,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -864,140 +1056,140 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20">
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="24">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>15</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="26" t="str">
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="25" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="27" t="str">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="16" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>180*</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="22"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="25"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="21"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="20">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="24">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>16</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="26" t="str">
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="25" t="str">
         <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="27" t="str">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="16" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>160</v>
       </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="18"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="21"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -1035,46 +1227,62 @@
       <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="P7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="S7" s="6"/>
       <c r="T7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="V7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="W7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="5"/>
+      <c r="X7" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
@@ -1183,48 +1391,64 @@
       <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="P10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="S10" s="6" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="V10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X10" s="5"/>
+      <c r="X10" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
@@ -1294,9 +1518,7 @@
       <c r="W11" s="8">
         <v>4</v>
       </c>
-      <c r="X11" s="9">
-        <v>17</v>
-      </c>
+      <c r="X11" s="9"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
@@ -1330,47 +1552,63 @@
     </row>
     <row r="13" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="V13" s="4"/>
       <c r="W13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X13" s="5"/>
+      <c r="X13" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
@@ -1391,7 +1629,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>5</v>
@@ -1406,10 +1644,10 @@
         <v>10</v>
       </c>
       <c r="K14" s="8">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="L14" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>9</v>
@@ -1443,7 +1681,7 @@
         <v>50</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
@@ -1481,42 +1719,58 @@
       <c r="B16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="5"/>
+      <c r="R16" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="3"/>
+      <c r="U16" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="V16" s="4"/>
       <c r="W16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X16" s="5"/>
+      <c r="X16" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
@@ -1562,7 +1816,7 @@
         <v>21</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>6</v>
@@ -1623,44 +1877,60 @@
       <c r="B19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="J19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="5"/>
+      <c r="R19" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="S19" s="6"/>
       <c r="T19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="V19" s="4"/>
       <c r="W19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X19" s="5"/>
+      <c r="X19" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
@@ -1688,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>12</v>
@@ -1698,13 +1968,13 @@
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N20" s="8">
+        <v>4</v>
+      </c>
+      <c r="O20" s="9">
         <v>13</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>7</v>
@@ -1722,7 +1992,7 @@
         <v>4</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>5</v>
@@ -1764,49 +2034,65 @@
     </row>
     <row r="22" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M22" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
+      <c r="O22" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="5"/>
+      <c r="R22" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="3"/>
+      <c r="U22" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="V22" s="4"/>
       <c r="W22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X22" s="5"/>
+      <c r="X22" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
@@ -1824,7 +2110,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23" s="9">
         <v>4</v>
@@ -1833,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="8">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="I23" s="9">
         <v>41</v>
@@ -1841,8 +2127,8 @@
       <c r="J23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>63</v>
+      <c r="K23" s="8">
+        <v>8</v>
       </c>
       <c r="L23" s="9">
         <v>4</v>
@@ -1873,18 +2159,18 @@
         <v>41</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="W23" s="8">
+        <v>16</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1912,53 +2198,73 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D25" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="H25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
+      <c r="I25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="K25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="5"/>
+      <c r="R25" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="S25" s="6"/>
       <c r="T25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U25" s="3"/>
+      <c r="U25" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="V25" s="4"/>
       <c r="W25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X25" s="5"/>
+      <c r="X25" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
@@ -1978,10 +2284,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="7" t="s">
@@ -2059,44 +2365,62 @@
       <c r="B28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="G28" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L28" s="5"/>
+      <c r="L28" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
+      <c r="O28" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="6"/>
+      <c r="R28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="T28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U28" s="3"/>
+      <c r="U28" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="V28" s="4"/>
       <c r="W28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X28" s="5"/>
+      <c r="X28" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
@@ -2108,7 +2432,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
@@ -2134,7 +2458,9 @@
       <c r="K29" s="8">
         <v>53</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9">
+        <v>4</v>
+      </c>
       <c r="M29" s="7" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>5</v>
@@ -2161,12 +2487,14 @@
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="X29" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="X29" s="9">
+        <v>53</v>
+      </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
@@ -2204,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="11" t="s">
@@ -29214,13 +29542,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29230,6 +29551,13 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29244,7 +29572,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -29304,7 +29632,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29336,7 +29664,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29400,7 +29728,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29697,7 +30025,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -29740,7 +30068,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -29827,7 +30155,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29835,7 +30163,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
